--- a/biology/Zoologie/Corynis_crassicornis/Corynis_crassicornis.xlsx
+++ b/biology/Zoologie/Corynis_crassicornis/Corynis_crassicornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corynis crassicornis est une espèce de symphytes (mouches à scie) de la famille des Cimbicidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corynis crassicornis est une espèce de symphytes (mouches à scie) de la famille des Cimbicidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corynis crassicornis est aisément reconnaissable à ses pattes jaunes et aux bandes jaunes sur les marges apicales de ses tergites[2]. Il mesure un centimètre au maximum.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corynis crassicornis est aisément reconnaissable à ses pattes jaunes et aux bandes jaunes sur les marges apicales de ses tergites. Il mesure un centimètre au maximum.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ponte a lieu sur trois espèces de Sedum où la larve s'y développe librement sur les feuilles[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ponte a lieu sur trois espèces de Sedum où la larve s'y développe librement sur les feuilles.
 Le vol a lieu de mai à août.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique du Nord et en Europe (excepté l'Europe du nord)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique du Nord et en Europe (excepté l'Europe du nord).
 </t>
         </is>
       </c>
@@ -605,11 +623,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Corynis crassicornis (Rossi, 1790)[5].
-L'espèce a été initialement classée dans le genre Tenthredo sous le protonyme Tenthredo crassicornis Rossi, 1790[5].
-Corynis crassicornis a pour synonymes[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Corynis crassicornis (Rossi, 1790).
+L'espèce a été initialement classée dans le genre Tenthredo sous le protonyme Tenthredo crassicornis Rossi, 1790.
+Corynis crassicornis a pour synonymes :
 Amasis crassicornis var. gallica Pic, 1918
 Amasis crassicornis var. nigriventris Soldanski, 1916
 Amasis laeta (Fabricius, 1798)
